--- a/results_v1/res_bus/p_mw.xlsx
+++ b/results_v1/res_bus/p_mw.xlsx
@@ -427,7 +427,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>50.42109682112266</v>
+        <v>16.18988301487596</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -463,16 +463,16 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>38.48825575548253</v>
+        <v>40.83326269737724</v>
       </c>
       <c r="O2">
-        <v>76.34695124937181</v>
+        <v>95.23498993140709</v>
       </c>
       <c r="P2">
-        <v>35.40418836542443</v>
+        <v>40.98319144789082</v>
       </c>
       <c r="Q2">
-        <v>32.62948055894969</v>
+        <v>41.832786326281</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -480,7 +480,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>48.38686757140101</v>
+        <v>47.42797133474849</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -516,16 +516,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>36.61603144290913</v>
+        <v>36.65500741226202</v>
       </c>
       <c r="O3">
-        <v>78.39184877107849</v>
+        <v>78.83383568670027</v>
       </c>
       <c r="P3">
-        <v>37.0829591209534</v>
+        <v>37.81363905944266</v>
       </c>
       <c r="Q3">
-        <v>33.10992483584087</v>
+        <v>33.76505716912467</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -533,7 +533,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>69.4951406079978</v>
+        <v>71.55882455003447</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -569,16 +569,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>32.18257109516509</v>
+        <v>33.76033537487606</v>
       </c>
       <c r="O4">
-        <v>68.32947150551249</v>
+        <v>64.70693370748816</v>
       </c>
       <c r="P4">
-        <v>32.70636956133384</v>
+        <v>34.0664159898821</v>
       </c>
       <c r="Q4">
-        <v>29.75536141428839</v>
+        <v>29.59068203342625</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -586,7 +586,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>56.54442333293238</v>
+        <v>42.59909178620052</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -622,16 +622,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>34.2992742252334</v>
+        <v>37.08879772507061</v>
       </c>
       <c r="O5">
-        <v>72.37877481455114</v>
+        <v>84.73107304179482</v>
       </c>
       <c r="P5">
-        <v>35.2673114270152</v>
+        <v>34.42752367011119</v>
       </c>
       <c r="Q5">
-        <v>32.73554264741296</v>
+        <v>33.607751549749</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -639,7 +639,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.01230229197759</v>
+        <v>73.12624780253736</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -675,16 +675,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>38.12772861414921</v>
+        <v>31.56890440264874</v>
       </c>
       <c r="O6">
-        <v>95.7345459473709</v>
+        <v>66.2333567041475</v>
       </c>
       <c r="P6">
-        <v>39.06614566316816</v>
+        <v>29.81958113364524</v>
       </c>
       <c r="Q6">
-        <v>37.76337921338072</v>
+        <v>30.05841826064213</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -692,7 +692,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>58.04371284783423</v>
+        <v>24.16380951156469</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -728,16 +728,16 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>34.59602686557773</v>
+        <v>38.10007353711691</v>
       </c>
       <c r="O7">
-        <v>70.23689163346359</v>
+        <v>91.6746951991407</v>
       </c>
       <c r="P7">
-        <v>34.30778558851327</v>
+        <v>38.24166967338104</v>
       </c>
       <c r="Q7">
-        <v>33.17588579311706</v>
+        <v>40.01435163584912</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -745,7 +745,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.67270217860477</v>
+        <v>37.75684600069326</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -781,16 +781,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>41.88448540792952</v>
+        <v>44.26378431808916</v>
       </c>
       <c r="O8">
-        <v>95.85406509534751</v>
+        <v>74.43261699958248</v>
       </c>
       <c r="P8">
-        <v>41.00178588010672</v>
+        <v>39.66187744496233</v>
       </c>
       <c r="Q8">
-        <v>38.35312883402995</v>
+        <v>35.5866488244923</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -798,7 +798,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-12.44645510466893</v>
+        <v>-50.47483773574899</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>-239.9569518232632</v>
+        <v>-239.9569518232633</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -834,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>51.7453592965585</v>
+        <v>51.27162293208468</v>
       </c>
       <c r="O9">
-        <v>102.9647823398111</v>
+        <v>124.1782950156539</v>
       </c>
       <c r="P9">
-        <v>47.25128536264924</v>
+        <v>52.92901524221594</v>
       </c>
       <c r="Q9">
-        <v>42.77779231604183</v>
+        <v>54.7301735647408</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -851,7 +851,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-20.22332344179918</v>
+        <v>11.06754509841213</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -887,16 +887,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>51.71670720803154</v>
+        <v>47.8331959102339</v>
       </c>
       <c r="O10">
-        <v>107.1825251858962</v>
+        <v>93.52267786134865</v>
       </c>
       <c r="P10">
-        <v>48.02910876388415</v>
+        <v>41.63159558081182</v>
       </c>
       <c r="Q10">
-        <v>45.74369400737953</v>
+        <v>38.20190977736991</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -904,7 +904,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-14.80851541489884</v>
+        <v>9.700693823409722</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -940,16 +940,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>55.38665773611328</v>
+        <v>46.96495011367779</v>
       </c>
       <c r="O11">
-        <v>99.15132877504197</v>
+        <v>89.85948024870424</v>
       </c>
       <c r="P11">
-        <v>49.57860395513069</v>
+        <v>44.95811919029205</v>
       </c>
       <c r="Q11">
-        <v>43.11430941814584</v>
+        <v>41.00342338163995</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -957,7 +957,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-79.95556559493441</v>
+        <v>-33.10942558086859</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>-240.0787149321267</v>
+        <v>-240.0787149321268</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -993,16 +993,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>54.57930092278777</v>
+        <v>48.69640519108456</v>
       </c>
       <c r="O12">
-        <v>142.3145964064165</v>
+        <v>117.8017862319507</v>
       </c>
       <c r="P12">
-        <v>57.1388618940357</v>
+        <v>49.15644681317352</v>
       </c>
       <c r="Q12">
-        <v>57.71666108537323</v>
+        <v>50.23135990750845</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1010,7 +1010,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-16.51726697589572</v>
+        <v>10.92414338926798</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1046,16 +1046,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>45.41562466087812</v>
+        <v>43.76849564867214</v>
       </c>
       <c r="O13">
-        <v>106.6414837093385</v>
+        <v>89.6564397937158</v>
       </c>
       <c r="P13">
-        <v>47.67661902971551</v>
+        <v>44.62028547208274</v>
       </c>
       <c r="Q13">
-        <v>49.36912908733552</v>
+        <v>43.54244035170115</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1063,7 +1063,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-11.87008593583525</v>
+        <v>-15.40524312362999</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>50.42795542321092</v>
+        <v>45.04012228572522</v>
       </c>
       <c r="O14">
-        <v>101.6898580719064</v>
+        <v>113.4904773280769</v>
       </c>
       <c r="P14">
-        <v>46.40367451386618</v>
+        <v>44.7690191476363</v>
       </c>
       <c r="Q14">
-        <v>45.88798811689534</v>
+        <v>44.82566530028853</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1116,7 +1116,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.2257847457594</v>
+        <v>-16.02145632556304</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1152,16 +1152,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>46.07431882423123</v>
+        <v>52.01183998289665</v>
       </c>
       <c r="O15">
-        <v>85.6060483310327</v>
+        <v>104.6113304521054</v>
       </c>
       <c r="P15">
-        <v>41.88756457763466</v>
+        <v>48.33700549694206</v>
       </c>
       <c r="Q15">
-        <v>40.38610388403455</v>
+        <v>44.00841284598422</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1169,7 +1169,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-17.01093624754313</v>
+        <v>-4.774717931109876</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1205,16 +1205,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>49.65835566802609</v>
+        <v>52.38615769145954</v>
       </c>
       <c r="O16">
-        <v>103.1831640992937</v>
+        <v>95.93505978870328</v>
       </c>
       <c r="P16">
-        <v>51.49261769298514</v>
+        <v>45.04107297501491</v>
       </c>
       <c r="Q16">
-        <v>45.70603414910607</v>
+        <v>44.43493363646743</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1222,7 +1222,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.65149676905216</v>
+        <v>11.0530096341634</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1258,16 +1258,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>45.62676516735201</v>
+        <v>45.873255989108</v>
       </c>
       <c r="O17">
-        <v>91.22895729360562</v>
+        <v>86.94590059892511</v>
       </c>
       <c r="P17">
-        <v>39.38663027453026</v>
+        <v>47.83551979958051</v>
       </c>
       <c r="Q17">
-        <v>36.26771374461941</v>
+        <v>41.31803289164577</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1275,7 +1275,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.19787530524002</v>
+        <v>-11.84663712098489</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1311,16 +1311,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>47.26220826829039</v>
+        <v>50.87004914924405</v>
       </c>
       <c r="O18">
-        <v>81.2002766439074</v>
+        <v>99.11211303769849</v>
       </c>
       <c r="P18">
-        <v>41.6036060640792</v>
+        <v>49.685796604356</v>
       </c>
       <c r="Q18">
-        <v>38.87252459572142</v>
+        <v>45.35774537819447</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1328,7 +1328,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-32.09912911001535</v>
+        <v>-16.23200363059553</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>-240.9220835773223</v>
+        <v>-240.9220835773224</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1364,16 +1364,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>49.87237365363865</v>
+        <v>53.95035564790116</v>
       </c>
       <c r="O19">
-        <v>118.1806494743304</v>
+        <v>102.5834622526447</v>
       </c>
       <c r="P19">
-        <v>48.7938628226247</v>
+        <v>49.37669818714181</v>
       </c>
       <c r="Q19">
-        <v>48.59106920645698</v>
+        <v>43.77712699457962</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1381,7 +1381,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-1.498468019912536</v>
+        <v>0.5153029244648053</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>51.18386746859335</v>
+        <v>50.65093602445429</v>
       </c>
       <c r="O20">
-        <v>95.10738695020132</v>
+        <v>98.93744430917332</v>
       </c>
       <c r="P20">
-        <v>46.80248698850443</v>
+        <v>43.42611555707126</v>
       </c>
       <c r="Q20">
-        <v>42.0541903151354</v>
+        <v>40.27783221702961</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1434,7 +1434,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-21.15145396817121</v>
+        <v>-56.32686227602387</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1470,16 +1470,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>54.58468215710867</v>
+        <v>59.43311132138389</v>
       </c>
       <c r="O21">
-        <v>99.2702172762057</v>
+        <v>118.0041271966056</v>
       </c>
       <c r="P21">
-        <v>53.89448107960345</v>
+        <v>58.37236086820326</v>
       </c>
       <c r="Q21">
-        <v>47.78792502587729</v>
+        <v>55.00715345904308</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1487,7 +1487,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-43.0220166770327</v>
+        <v>-18.90776260720847</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1523,16 +1523,16 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>54.87759314222294</v>
+        <v>56.28049618735317</v>
       </c>
       <c r="O22">
-        <v>114.8891719281988</v>
+        <v>97.82831033467937</v>
       </c>
       <c r="P22">
-        <v>56.0703621129841</v>
+        <v>53.26840983069033</v>
       </c>
       <c r="Q22">
-        <v>51.71646227738171</v>
+        <v>46.20209035178999</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1540,7 +1540,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-8.811910495710748</v>
+        <v>-13.7414238158992</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>49.83249796706156</v>
+        <v>51.8300296643275</v>
       </c>
       <c r="O23">
-        <v>106.174845255633</v>
+        <v>105.0602416379104</v>
       </c>
       <c r="P23">
-        <v>43.48634178558299</v>
+        <v>48.82745256167436</v>
       </c>
       <c r="Q23">
-        <v>43.20009182342497</v>
+        <v>42.20874188979647</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1593,7 +1593,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.316441168350252</v>
+        <v>-9.441664019085408</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1629,16 +1629,16 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>49.88552768694822</v>
+        <v>53.30708845321073</v>
       </c>
       <c r="O24">
-        <v>89.46911419440229</v>
+        <v>100.7025161642255</v>
       </c>
       <c r="P24">
-        <v>48.15550590923573</v>
+        <v>48.33512005751078</v>
       </c>
       <c r="Q24">
-        <v>42.25122567025554</v>
+        <v>42.53694926981143</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1646,7 +1646,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>46.62624334166608</v>
+        <v>-4.47417788827525</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1682,16 +1682,16 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>40.99204264610193</v>
+        <v>45.12056747811747</v>
       </c>
       <c r="O25">
-        <v>79.05790844616422</v>
+        <v>106.965968120998</v>
       </c>
       <c r="P25">
-        <v>36.4671919659493</v>
+        <v>45.33710909094862</v>
       </c>
       <c r="Q25">
-        <v>32.19160558080964</v>
+        <v>44.30988445551395</v>
       </c>
     </row>
   </sheetData>
